--- a/99_기타 자동화/Websites Multi Login/sample_logindata.xlsx
+++ b/99_기타 자동화/Websites Multi Login/sample_logindata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,14 @@
   </si>
   <si>
     <t>http://abcde.com/login.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANDING PAGE(Available to be omitted)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://abcde.com/MYPAGE.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:M29"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -398,7 +406,7 @@
     <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -414,8 +422,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -431,23 +442,27 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
